--- a/odsTablesTonic.xlsx
+++ b/odsTablesTonic.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cclf7" sheetId="1" r:id="rId1"/>
     <sheet name="cclf5" sheetId="2" r:id="rId2"/>
+    <sheet name="cclf1" sheetId="3" r:id="rId3"/>
+    <sheet name="cclf3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="182">
   <si>
     <t>COLUMN_NAME</t>
   </si>
@@ -428,9 +430,6 @@
     <t>Tonic process run after effectiveness logic?</t>
   </si>
   <si>
-    <t>what's purpose of this vs Uniq ID?</t>
-  </si>
-  <si>
     <t>defined as: 
 COALESCE(TO_VARCHAR(cur_clm_uniq_id),'') || '|' ||
       COALESCE(TO_VARCHAR(clm_line_num),'')
@@ -438,18 +437,154 @@
 alphanumeric string key doesn’t work because of pipe.  Regex the pipe and use numeric string key</t>
   </si>
   <si>
+    <t>what's purpose of this vs Uniq ID? Field is impotant bcz used in NK</t>
+  </si>
+  <si>
+    <t>Numeric String Key with consistency</t>
+  </si>
+  <si>
+    <t>this is in PK …treat as PHI
+Because this field is numeric I couldn't apply
+ Numeric String Key, so this field, src_pk_pt_b_phys_id
+and pk_pt_b_phys_id (claim id piece) are out of synch</t>
+  </si>
+  <si>
+    <t>generator: timeshift generator +30 - +180 consitent to fk_bene_id
+using fk_bene_id for now since src_mbi_id not populated in  old data</t>
+  </si>
+  <si>
+    <t>alpha numeric string key consistent</t>
+  </si>
+  <si>
+    <t>alphanumeric string key consistency</t>
+  </si>
+  <si>
+    <t>CLM_BLG_PRVDR_OSCAR_NUM</t>
+  </si>
+  <si>
+    <t>CLM_FROM_DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLM_THRU_DT </t>
+  </si>
+  <si>
+    <t>Most Recent MBI (MR_MBI). (we use: bene_mbi_id)</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(cur_clm_uniq_id),'')</t>
+  </si>
+  <si>
+    <t>AS PK_PT_A_HDR_ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Regex 
 (.*)\|(\w+.*)
 capture group
-0 passthrough
+0 Numeric String Key, consistency
 1 Numeric String Key, consistency
 </t>
   </si>
   <si>
+    <t>numeric string key, consistency</t>
+  </si>
+  <si>
+    <t>PK_PT_A_HDR_ID</t>
+  </si>
+  <si>
+    <t>SRC_PK_PT_A_HDR_ID</t>
+  </si>
+  <si>
+    <t>SRC_PRVDR_OSCAR_NUM</t>
+  </si>
+  <si>
+    <t>SRC_CLM_BILL_FAC_TYPE_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_BILL_CLSFCTN_CD</t>
+  </si>
+  <si>
+    <t>SRC_PRNCPL_DGNS_CD</t>
+  </si>
+  <si>
+    <t>SRC_ADMTG_DGNS_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_MDCR_NPMT_RSN_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_PMT_AMT</t>
+  </si>
+  <si>
+    <t>SRC_CLM_NCH_PRMRY_PYR_CD</t>
+  </si>
+  <si>
+    <t>SRC_PRVDR_FAC_FIPS_ST_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_PTNT_STUS_CD</t>
+  </si>
+  <si>
+    <t>SRC_DGNS_DRG_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_OP_SRVC_TYPE_CD</t>
+  </si>
+  <si>
+    <t>SRC_FAC_PRVDR_NPI_NUM</t>
+  </si>
+  <si>
+    <t>SRC_OPRTG_PRVDR_NPI_NUM</t>
+  </si>
+  <si>
+    <t>SRC_ATNDG_PRVDR_NPI_NUM</t>
+  </si>
+  <si>
+    <t>SRC_OTHR_PRVDR_NPI_NUM</t>
+  </si>
+  <si>
+    <t>SRC_CLM_ADMSN_TYPE_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_ADMSN_SRC_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_BILL_FREQ_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_QUERY_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_PBP_INCLSN_AMT</t>
+  </si>
+  <si>
+    <t>SRC_CLM_PBP_RDCTN_AMT</t>
+  </si>
+  <si>
+    <t>ODS_PT_A_CLM_NK</t>
+  </si>
+  <si>
+    <t>SRC_CLM_MDCR_INSTNL_TOT_CHRG_AMT</t>
+  </si>
+  <si>
+    <t>SRC_CLM_MDCR_IP_PPS_CPTL_IME_AMT</t>
+  </si>
+  <si>
+    <t>SRC_CLM_OPRTNL_IME_AMT</t>
+  </si>
+  <si>
+    <t>SRC_CLM_MDCR_IP_PPS_DSPRPRTNT_AMT</t>
+  </si>
+  <si>
+    <t>SRC_CLM_HIPPS_UNCOMPD_CARE_AMT</t>
+  </si>
+  <si>
+    <t>SRC_CLM_OPRTNL_DSPRPRTNT_AMT</t>
+  </si>
+  <si>
     <t>this is in PK …treat as PHI
 Because this field is numeric I couldn't apply
- Numeric Striing Key, so this field, src_pk_pt_b_phys_id
-and pk_pt_b_phys_id (claim id piece) are out of synch</t>
+ Numeric String Key, so this field, src_pk_pt_a_hdr_id
+and pk_pt_a_hdr_id (claim id piece) are out of synch</t>
   </si>
   <si>
     <r>
@@ -466,8 +601,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>in a post job script, copy from src_pk_pt_b_a_phys_id into src_cur_clm_uniq_id making necessay type conversion and parsing out line piece.</t>
+      <t>in a post job script, copy from src_pk_pt_a_hdr_id into src_cur_clm_uniq_id making necessay type conversion</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Integer Key with consistecy
+or
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in a post job script, copy from src_pk_pt_b_phys_id into src_cur_clm_uniq_id making necessay type conversion and parsing out line piece.</t>
+    </r>
+  </si>
+  <si>
+    <t>alpha numeric string key with consitency</t>
+  </si>
+  <si>
+    <t>generator: timeshift generator +30 - +180 consitent to fk_bene_id
+using fk_bene_id for now since src_bene_mbi_id not populated in  old data</t>
+  </si>
+  <si>
+    <t>PK_PT_A_PROC_ID</t>
+  </si>
+  <si>
+    <t>FK_PT_A_CLM_HDR_ID</t>
+  </si>
+  <si>
+    <t>SRC_PK_PT_A_PROC_ID</t>
+  </si>
+  <si>
+    <t>SRC_CLM_VAL_SQNC_NUM</t>
+  </si>
+  <si>
+    <t>SRC_CLM_PRCDR_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_PRCDR_PRFRM_DT</t>
+  </si>
+  <si>
+    <t>Natural Key</t>
   </si>
 </sst>
 </file>
@@ -496,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +696,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -528,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -541,6 +728,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,9 +738,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFF0066"/>
-      <color rgb="FFFF66FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -830,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1199,15 +1388,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1215,6 +1404,15 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
@@ -1271,10 +1469,13 @@
         <v>75</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -1312,27 +1513,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="3:6">
       <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:6">
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:6">
       <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="150">
+    <row r="21" spans="3:6" ht="105">
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1340,295 +1541,328 @@
         <v>127</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" t="s">
+    <row r="23" spans="3:6">
+      <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="3:5">
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:6" ht="90">
       <c r="C25" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="3:5">
+      <c r="E25" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="90">
       <c r="C26" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="3:5">
+      <c r="E26" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:6">
       <c r="C28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:6">
       <c r="C29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:6">
       <c r="C30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:6">
       <c r="C31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:6" ht="90">
       <c r="C32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="3:4">
+      <c r="E32" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="90">
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D33" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="34" spans="3:4">
+      <c r="E33" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
       <c r="C34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:5">
       <c r="C35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="3:5">
       <c r="C36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="3:5">
       <c r="C37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="3:5">
       <c r="C38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="3:5">
       <c r="C39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="3:5">
       <c r="C40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="3:5">
       <c r="C41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="3:5">
       <c r="C42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:5">
       <c r="C43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="3:5" ht="30">
       <c r="C44" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="3:4">
+      <c r="E44" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="30">
       <c r="C45" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" t="s">
+      <c r="D45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="3:4">
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
       <c r="C47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="3:5">
       <c r="C48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:4">
       <c r="C51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:4">
       <c r="C52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:4">
       <c r="C53" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:4">
       <c r="C54" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:4">
       <c r="C55" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:4">
       <c r="C56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:4">
       <c r="C57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:4">
       <c r="C58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="3:4">
       <c r="C59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:4">
       <c r="C60" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="3:4">
       <c r="C61" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="3:4">
       <c r="C62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:4">
       <c r="C63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
+    <row r="64" spans="3:4" ht="45">
       <c r="C64" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+      <c r="D64" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="66" spans="3:3">
+      <c r="E65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
       <c r="C66" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:5">
       <c r="C67" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:5">
       <c r="C68" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:5">
       <c r="C69" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:5">
       <c r="C70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:5">
       <c r="C71" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:5">
       <c r="C72" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:5">
       <c r="C75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:5">
       <c r="C76" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:5">
       <c r="C77" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:5">
       <c r="C80" t="s">
         <v>56</v>
       </c>
@@ -1657,4 +1891,653 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F75"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="30">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="193.5" customHeight="1">
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="45">
+      <c r="C9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="150">
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="30">
+      <c r="C23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="105">
+      <c r="C25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="105">
+      <c r="C26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="45">
+      <c r="C44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="30">
+      <c r="C45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="45">
+      <c r="C53" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="30">
+      <c r="C54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:C46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/odsTablesTonic.xlsx
+++ b/odsTablesTonic.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="cclf7" sheetId="1" r:id="rId1"/>
-    <sheet name="cclf5" sheetId="2" r:id="rId2"/>
-    <sheet name="cclf1" sheetId="3" r:id="rId3"/>
-    <sheet name="cclf3" sheetId="4" r:id="rId4"/>
+    <sheet name="cclf7 med" sheetId="1" r:id="rId1"/>
+    <sheet name="cclf5 phys" sheetId="2" r:id="rId2"/>
+    <sheet name="cclf1 hdr" sheetId="3" r:id="rId3"/>
+    <sheet name="cclf3 proc" sheetId="4" r:id="rId4"/>
+    <sheet name="cclf2 rev" sheetId="5" r:id="rId5"/>
+    <sheet name="cclf4 diag" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="213">
   <si>
     <t>COLUMN_NAME</t>
   </si>
@@ -477,14 +479,6 @@
     <t>AS PK_PT_A_HDR_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Regex 
-(.*)\|(\w+.*)
-capture group
-0 Numeric String Key, consistency
-1 Numeric String Key, consistency
-</t>
-  </si>
-  <si>
     <t>numeric string key, consistency</t>
   </si>
   <si>
@@ -650,12 +644,179 @@
   <si>
     <t>Natural Key</t>
   </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(clm_val_sqnc_num),'')</t>
+  </si>
+  <si>
+    <t>AS PK_PT_A_PROC_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regex 
+(\d+)\|(\d+)
+capture group
+0 Numeric String Key, consistency
+1 Numeric String Key, consistency
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Defined as: 
+COALESCE(TO_VARCHAR('{{org_src_id}}'),'') || '|' ||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      COALESCE(TO_VARCHAR(cur_clm_uniq_id),'')
+      AS FK_PT_A_CLM_HDR_ID
+this hashing has to match hashing that was done on the PK in cclf1</t>
+    </r>
+  </si>
+  <si>
+    <t>this field is numeric…  so Tonic numeric String key can't be used.  Claim portion of claim based fields can differ from eachother. Important?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">defined as:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COALESCE(TO_VARCHAR(cur_clm_uniq_id),'') || '|' ||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      COALESCE(TO_VARCHAR(clm_val_sqnc_num),'')
+      AS SRC_PK_PT_A_PROC_ID</t>
+    </r>
+  </si>
+  <si>
+    <t>Integer key with consistency</t>
+  </si>
+  <si>
+    <t>hash in etl
+this  hash may want to agree with the one in scr_bene_mbi_id in which case in this field .. separate out program prefix</t>
+  </si>
+  <si>
+    <t>PK_PT_A_REV_CTR_DET_ID</t>
+  </si>
+  <si>
+    <t>SRC_PK_PT_A_REV_CTR_DET_ID</t>
+  </si>
+  <si>
+    <t>SRC_CLM_LINE_PROD_REV_CTR_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_LINE_INSTNL_REV_CTR_DT</t>
+  </si>
+  <si>
+    <t>SRC_CLM_REV_APC_HIPPS_CD</t>
+  </si>
+  <si>
+    <t>PK_PT_A_DIAG_ID</t>
+  </si>
+  <si>
+    <t>SRC_PK_PT_A_DIAG_ID</t>
+  </si>
+  <si>
+    <t>SRC_CLM_PROD_TYPE_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_DGNS_CD</t>
+  </si>
+  <si>
+    <t>SRC_CLM_POA_IND</t>
+  </si>
+  <si>
+    <t>AS PK_PT_A_REV_CTR_DET_ID</t>
+  </si>
+  <si>
+    <t>may want to apply hash just ono claim id portion</t>
+  </si>
+  <si>
+    <t>ascii key with consistency applied to whole field</t>
+  </si>
+  <si>
+    <t>might want to apply hash precisely on relevant portion to keep claim id-based fields in synch?  Tonic generator can't regex out the claim portion in a field defined in db as PK</t>
+  </si>
+  <si>
+    <t>defined as: 
+COALESCE(TO_VARCHAR('{{org_src_id}}'),'') || '|' ||      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS FK_BENE_ID
+may want to apply hash/generator precisely on MBI porton to keep mbi id based fields in synch</t>
+  </si>
+  <si>
+    <t>hash in etl
+this  hash may want to agree with the one in scr_bene_mbi_id in which case apply hash precisely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(claim id based)
+defined as: 
+COALESCE(TO_VARCHAR(cur_clm_uniq_id),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_line_num),'')
+      AS SRC_PK_PT_A_REV_CTR_DET_ID
+</t>
+  </si>
+  <si>
+    <t>Regex (.*)\|(\d+)
+capture group
+0 pass through
+1 numeriic string key with consistency</t>
+  </si>
+  <si>
+    <t>Regex (\d+)\|(\d)
+capture group
+0 numeric string key with consistency
+1 numeric string key with consistency</t>
+  </si>
+  <si>
+    <t>(claim id based, but field type is numeric)…  can’t use a numeric string generator like used in other claim id based fields</t>
+  </si>
+  <si>
+    <t>? PHI ?  … field is numeric too</t>
+  </si>
+  <si>
+    <t>mbi id based field</t>
+  </si>
+  <si>
+    <t>ascii key with consistency applied to whole field.  Would have to be same method across part a cclfs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +831,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -715,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -730,6 +899,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,8 +908,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF66FF"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFFF0066"/>
     </mruColors>
   </colors>
@@ -1019,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1051,7 +1221,7 @@
       </c>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -1388,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1420,7 +1590,7 @@
       </c>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D3" t="s">
@@ -1472,7 +1642,7 @@
         <v>124</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1541,7 +1711,7 @@
         <v>127</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>
@@ -1895,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F75"/>
+  <dimension ref="C1:F85"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1929,12 +2099,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:6" ht="45">
       <c r="C3" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
         <v>122</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="30">
@@ -1976,13 +2152,13 @@
     </row>
     <row r="9" spans="3:6" ht="45">
       <c r="C9" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -2043,15 +2219,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="150">
+    <row r="21" spans="3:6" ht="105">
       <c r="C21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>
@@ -2059,7 +2235,7 @@
     </row>
     <row r="22" spans="3:6">
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="30">
@@ -2067,7 +2243,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -2080,7 +2256,7 @@
         <v>77</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="3:6" ht="105">
@@ -2088,82 +2264,82 @@
         <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="3:5">
       <c r="C37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="C38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="C40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="3:5">
       <c r="C41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="3:5">
@@ -2194,22 +2370,22 @@
     </row>
     <row r="46" spans="3:5">
       <c r="C46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="3:5">
       <c r="C48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="3:5">
       <c r="C49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="3:5">
@@ -2219,17 +2395,17 @@
     </row>
     <row r="51" spans="3:5">
       <c r="C51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="C52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="45">
       <c r="C53" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>72</v>
@@ -2245,32 +2421,32 @@
     </row>
     <row r="55" spans="3:5">
       <c r="C55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="3:5">
       <c r="C57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="3:5">
       <c r="C58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="3:5">
       <c r="C59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="3:5">
       <c r="C60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="3:5">
@@ -2326,6 +2502,11 @@
     <row r="75" spans="3:3">
       <c r="C75" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2336,10 +2517,729 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="30">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="180">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="150">
+      <c r="C8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="105">
+      <c r="C10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="75">
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="30">
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="30">
+      <c r="C28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="30">
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="30">
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="45">
+      <c r="C33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="30">
+      <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="7" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="105">
+      <c r="C3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="30">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="195">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="165">
+      <c r="C8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="165">
+      <c r="C10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="75">
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="45">
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="45">
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="45">
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="45">
+      <c r="C29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="30">
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="45">
+      <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="45">
+      <c r="C34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="90">
+      <c r="C42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="30">
+      <c r="C43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2359,7 +3259,7 @@
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -2384,7 +3284,7 @@
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="3:3">
@@ -2394,7 +3294,7 @@
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="3:3">
@@ -2469,17 +3369,17 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -2489,7 +3389,7 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="3:3">
@@ -2504,32 +3404,37 @@
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
-        <v>181</v>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="3:3">

--- a/odsTablesTonic.xlsx
+++ b/odsTablesTonic.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="cclf7 med" sheetId="1" r:id="rId1"/>
-    <sheet name="cclf5 phys" sheetId="2" r:id="rId2"/>
-    <sheet name="cclf1 hdr" sheetId="3" r:id="rId3"/>
-    <sheet name="cclf3 proc" sheetId="4" r:id="rId4"/>
-    <sheet name="cclf2 rev" sheetId="5" r:id="rId5"/>
-    <sheet name="cclf4 diag" sheetId="6" r:id="rId6"/>
+    <sheet name="cclf1 hdr" sheetId="3" r:id="rId1"/>
+    <sheet name="cclf2 rev" sheetId="5" r:id="rId2"/>
+    <sheet name="cclf3 proc" sheetId="4" r:id="rId3"/>
+    <sheet name="cclf4 diag" sheetId="6" r:id="rId4"/>
+    <sheet name="cclf5 phys" sheetId="2" r:id="rId5"/>
+    <sheet name="cclf6 dme" sheetId="8" r:id="rId6"/>
+    <sheet name="cclf7 med" sheetId="1" r:id="rId7"/>
+    <sheet name="cclf8 bene demo" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="269">
   <si>
     <t>COLUMN_NAME</t>
   </si>
@@ -770,12 +772,6 @@
     <t>might want to apply hash precisely on relevant portion to keep claim id-based fields in synch?  Tonic generator can't regex out the claim portion in a field defined in db as PK</t>
   </si>
   <si>
-    <t>defined as: 
-COALESCE(TO_VARCHAR('{{org_src_id}}'),'') || '|' ||      COALESCE(TO_VARCHAR(bene_mbi_id),'')
-      AS FK_BENE_ID
-may want to apply hash/generator precisely on MBI porton to keep mbi id based fields in synch</t>
-  </si>
-  <si>
     <t>hash in etl
 this  hash may want to agree with the one in scr_bene_mbi_id in which case apply hash precisely</t>
   </si>
@@ -794,22 +790,260 @@
 1 numeriic string key with consistency</t>
   </si>
   <si>
-    <t>Regex (\d+)\|(\d)
+    <t>(claim id based, but field type is numeric)…  can’t use a numeric string generator like used in other claim id based fields</t>
+  </si>
+  <si>
+    <t>? PHI ?  … field is numeric too</t>
+  </si>
+  <si>
+    <t>mbi id based field</t>
+  </si>
+  <si>
+    <t>ascii key with consistency applied to whole field.  Would have to be same method across part a cclfs</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(clm_val_sqnc_num),'') || '|' ||</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(clm_prod_type_cd),'')</t>
+  </si>
+  <si>
+    <t>AS PK_PT_A_DIAG_ID</t>
+  </si>
+  <si>
+    <t>hashing to be done by Eng in ETL based on correct NK fields, see below definition</t>
+  </si>
+  <si>
+    <r>
+      <t>(claim id based)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Defined as: 
+COALESCE(TO_VARCHAR('{{org_src_id}}'),'') || '|' ||
+      COALESCE(TO_VARCHAR(cur_clm_uniq_id),'')
+      AS FK_PT_A_CLM_HDR_ID
+this hashing has to match hashing that was done on the PK in cclf1</t>
+    </r>
+  </si>
+  <si>
+    <t>(claim id based)
+Defined as: 
+COALESCE(TO_VARCHAR(cur_clm_uniq_id),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_val_sqnc_num),'') || '|' ||
+      COALESCE(TO_VARCHAR(clm_prod_type_cd),'')
+      AS SRC_PK_PT_A_DIAG_ID</t>
+  </si>
+  <si>
+    <t>Regex (\d+)\|(\d+)
 capture group
 0 numeric string key with consistency
 1 numeric string key with consistency</t>
   </si>
   <si>
-    <t>(claim id based, but field type is numeric)…  can’t use a numeric string generator like used in other claim id based fields</t>
-  </si>
-  <si>
-    <t>? PHI ?  … field is numeric too</t>
-  </si>
-  <si>
-    <t>mbi id based field</t>
-  </si>
-  <si>
-    <t>ascii key with consistency applied to whole field.  Would have to be same method across part a cclfs</t>
+    <t>Regex (\d+)\|(\d+)
+capture group
+0 numeric string key with consistency
+1 numeric string key with consistency
+2 passthrough</t>
+  </si>
+  <si>
+    <t>(mbi based)
+defined as: 
+COALESCE(TO_VARCHAR('{{org_src_id}}'),'') || '|' ||      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS FK_BENE_ID
+may want to apply hash/generator precisely on MBI porton to keep mbi id based fields in synch</t>
+  </si>
+  <si>
+    <t>ascii key with consistency</t>
+  </si>
+  <si>
+    <t>asciI key with consistency</t>
+  </si>
+  <si>
+    <t>ascii key with consistency applied to whole field.  Would have to be same method across part A cclfs</t>
+  </si>
+  <si>
+    <t>may want to apply generator</t>
+  </si>
+  <si>
+    <t>PK_BENE_ID</t>
+  </si>
+  <si>
+    <t>SRC_PK_BENE_ID</t>
+  </si>
+  <si>
+    <t>SRC_BENE_FIPS_STATE_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_FIPS_CNTY_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_ZIP_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_DOB</t>
+  </si>
+  <si>
+    <t>SRC_BENE_SEX_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_RACE_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_AGE</t>
+  </si>
+  <si>
+    <t>SRC_BENE_MDCR_STUS_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_DUAL_STUS_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_DEATH_DT</t>
+  </si>
+  <si>
+    <t>SRC_BENE_RNG_BGN_DT</t>
+  </si>
+  <si>
+    <t>SRC_BENE_RNG_END_DT</t>
+  </si>
+  <si>
+    <t>SRC_BENE_1ST_NAME</t>
+  </si>
+  <si>
+    <t>SRC_BENE_MIDL_NAME</t>
+  </si>
+  <si>
+    <t>SRC_BENE_LAST_NAME</t>
+  </si>
+  <si>
+    <t>SRC_BENE_ORGNL_ENTLMT_RSN_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_ENTLMT_BUYIN_IND</t>
+  </si>
+  <si>
+    <t>SRC_BENE_PART_A_ENRLMT_BGN_DT</t>
+  </si>
+  <si>
+    <t>SRC_BENE_PART_B_ENRLMT_BGN_DT</t>
+  </si>
+  <si>
+    <t>SRC_BENE_LINE_1_ADR</t>
+  </si>
+  <si>
+    <t>SRC_BENE_LINE_2_ADR</t>
+  </si>
+  <si>
+    <t>SRC_BENE_LINE_3_ADR</t>
+  </si>
+  <si>
+    <t>SRC_BENE_LINE_4_ADR</t>
+  </si>
+  <si>
+    <t>SRC_BENE_LINE_5_ADR</t>
+  </si>
+  <si>
+    <t>SRC_BENE_LINE_6_ADR</t>
+  </si>
+  <si>
+    <t>SRC_GEO_ZIP_PLC_NAME</t>
+  </si>
+  <si>
+    <t>SRC_GEO_USPS_STATE_CD</t>
+  </si>
+  <si>
+    <t>SRC_GEO_ZIP5_CD</t>
+  </si>
+  <si>
+    <t>SRC_GEO_ZIP4_CD</t>
+  </si>
+  <si>
+    <t>PK_PT_B_DME_ID</t>
+  </si>
+  <si>
+    <t>SRC_PK_PT_B_DME_ID</t>
+  </si>
+  <si>
+    <t>SRC_CLM_PRMRY_PYR_CD</t>
+  </si>
+  <si>
+    <t>SRC_PAYTO_PRVDR_NPI_NUM</t>
+  </si>
+  <si>
+    <t>SRC_ORDRG_PRVDR_NPI_NUM</t>
+  </si>
+  <si>
+    <t>mbi based 
+defined as: 
+COALESCE(TO_VARCHAR('{{org_src_id}}'),'') || '|' ||
+      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS PK_BENE_ID
+may want to apply hash/generator specifically on MBI porton to keep mbi id based fields in synch</t>
+  </si>
+  <si>
+    <t>generator: Name
+option: First
+with consistency</t>
+  </si>
+  <si>
+    <t>generator: Name
+option: First (there's no MI option)
+with consistency</t>
+  </si>
+  <si>
+    <t>generator: Name
+option: Last
+with consistency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">want to apply the same generation that I applied to the FKs in the other tables (like below) 
+multi-Regex (2nd regex for bad data)
+(.*)\|(\w+.*)
+capture group
+0 passthrough
+1 Alphanumeric String Key, consistency
+(.*)\|(\W+.*)
+capture group
+0 passthrough
+1 Null
+but tonic won't let me use this on a databasee defined PK field
+</t>
+  </si>
+  <si>
+    <t>ascii key
+hash in etl
+this  hash may want to agree with the one in scr_bene_mbi_id in which case apply hash precisely</t>
+  </si>
+  <si>
+    <t>Want to apply a timeshift generator but Tonic limits generator types on fields where the DB has included it as part of the pK</t>
+  </si>
+  <si>
+    <t>don't know solution yet ..I'm raising the issue to Tonic</t>
+  </si>
+  <si>
+    <t>generator: Date Trucation
+Option Year
+Option#2: Birth Day</t>
   </si>
 </sst>
 </file>
@@ -908,9 +1142,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF00FF"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFF0066"/>
+      <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1187,887 +1421,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F59"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6">
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="60">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="180">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="45">
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="105">
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="30">
-      <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="165">
-      <c r="C25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="45">
-      <c r="C37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" ht="45">
-      <c r="C40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" ht="30">
-      <c r="C41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F84"/>
-  <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:6">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6">
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6">
-      <c r="C3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" ht="30">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="180">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="165">
-      <c r="C9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="105">
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="90">
-      <c r="C25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="90">
-      <c r="C26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" ht="90">
-      <c r="C32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" ht="90">
-      <c r="C33" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" ht="30">
-      <c r="C44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" ht="30">
-      <c r="C45" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" ht="45">
-      <c r="C64" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5">
-      <c r="C65" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5">
-      <c r="C66" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5">
-      <c r="C67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5">
-      <c r="C68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5">
-      <c r="C69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5">
-      <c r="C70" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5">
-      <c r="C71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5">
-      <c r="C72" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5">
-      <c r="C75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="C76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5">
-      <c r="C77" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5">
-      <c r="C80" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -2410,6 +1766,9 @@
       <c r="D53" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="E53" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="54" spans="3:5" ht="30">
       <c r="C54" s="7" t="s">
@@ -2515,12 +1874,416 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="7" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="105">
+      <c r="C3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="30">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="180">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="180">
+      <c r="C8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="165">
+      <c r="C10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="75">
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="30">
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="30">
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="45">
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="45">
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="45">
+      <c r="C29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="30">
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="45">
+      <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="45">
+      <c r="C34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="90">
+      <c r="C42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="30">
+      <c r="C43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2557,6 +2320,12 @@
       <c r="D3" t="s">
         <v>122</v>
       </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="4" spans="3:6" ht="30">
       <c r="C4" t="s">
@@ -2601,7 +2370,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -2620,7 +2389,7 @@
         <v>63</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="3:6">
@@ -2706,8 +2475,11 @@
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -2754,15 +2526,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="45">
+    <row r="33" spans="3:6" ht="45">
       <c r="C33" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" ht="30">
+      <c r="E33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="30">
       <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
@@ -2770,52 +2548,52 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:6">
       <c r="C35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:6">
       <c r="C36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:6">
       <c r="C39" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:6">
       <c r="C40" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:6">
       <c r="C41" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:6">
       <c r="C42" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
+    <row r="43" spans="3:6">
       <c r="C43" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:6">
       <c r="C46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:6">
       <c r="C47" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:6">
       <c r="C48" s="8" t="s">
         <v>58</v>
       </c>
@@ -2828,6 +2606,361 @@
     <row r="50" spans="3:3">
       <c r="C50" t="s">
         <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="90">
+      <c r="C3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="30">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="180">
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="180">
+      <c r="C8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="165">
+      <c r="C10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="75">
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="30">
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="30">
+      <c r="C26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="30">
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="45">
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="45">
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="90">
+      <c r="C34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="30">
+      <c r="C35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2838,18 +2971,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F59"/>
+  <dimension ref="C1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="7" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -2871,9 +3004,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="105">
+    <row r="3" spans="3:6" ht="75">
       <c r="C3" s="4" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>203</v>
@@ -2903,329 +3036,452 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="195">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="3:6" ht="180">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="165">
-      <c r="C8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F7" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" t="s">
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="165">
-      <c r="C10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="9" spans="3:6" ht="165">
+      <c r="C9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>208</v>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="3:6">
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="75">
-      <c r="C22" s="4" t="s">
+    <row r="21" spans="3:6" ht="105">
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>188</v>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="45">
-      <c r="C24" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" t="s">
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="45">
+    <row r="25" spans="3:6" ht="90">
+      <c r="C25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="90">
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="45">
-      <c r="C27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="45">
-      <c r="C29" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="90">
+      <c r="C32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="90">
+      <c r="C33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="30">
-      <c r="C31" s="4" t="s">
+    <row r="35" spans="3:5">
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="30">
+      <c r="C44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="30">
+      <c r="C45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
-      <c r="C32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="45">
-      <c r="C33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="45">
-      <c r="C34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" t="s">
+    <row r="47" spans="3:5">
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
-      <c r="C36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6">
-      <c r="C37" t="s">
+    <row r="49" spans="3:6">
+      <c r="C49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="3:6">
-      <c r="C38" t="s">
+    <row r="50" spans="3:6">
+      <c r="C50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
-      <c r="C39" t="s">
+    <row r="51" spans="3:6">
+      <c r="C51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
-      <c r="C40" t="s">
+    <row r="52" spans="3:6">
+      <c r="C52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="3:6">
-      <c r="C41" t="s">
+    <row r="53" spans="3:6">
+      <c r="C53" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="90">
-      <c r="C42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="3" t="s">
+    <row r="54" spans="3:6">
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="45">
+      <c r="C64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="30">
-      <c r="C43" s="4" t="s">
+      <c r="F64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="E65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
-      <c r="C44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" t="s">
+    <row r="66" spans="3:5">
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5">
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5">
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="3:6">
-      <c r="C46" t="s">
+    <row r="72" spans="3:5">
+      <c r="C72" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
+    <row r="75" spans="3:5">
+      <c r="C75" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" t="s">
+    <row r="76" spans="3:5">
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="C80" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="s">
-        <v>200</v>
+    <row r="84" spans="3:3">
+      <c r="C84" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3236,125 +3492,137 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:C46"/>
+  <dimension ref="C1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3">
+    <row r="1" spans="3:6">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="3:3">
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:6">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:6">
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:6">
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:6">
       <c r="C8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
       <c r="C10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="3:3">
@@ -3369,80 +3637,824 @@
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>199</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>43</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="90">
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="60">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="180">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="45">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="105">
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="30">
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="165">
+      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="45">
+      <c r="C37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="45">
+      <c r="C40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="30">
+      <c r="C41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="375">
+      <c r="C3" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="60">
+      <c r="C24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="75">
+      <c r="C31" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="45">
+      <c r="C33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="60">
+      <c r="C34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="45">
+      <c r="C35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/odsTablesTonic.xlsx
+++ b/odsTablesTonic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="cclf1 hdr" sheetId="3" r:id="rId1"/>
@@ -30,8 +30,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Michael O'Connor</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael O'Connor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+freyder 3:43 PM
+If we wind up shifting claim dates and we don't have enrollment line up it could wind up with claims in months people don't have enrollment which could mess with things (not sure how much this would impact eng dev and debugging, might be thinking more from a analyst dev point of view )</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael O'Connor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+freyder 3:43 PM
+If we wind up shifting claim dates and we don't have enrollment line up it could wind up with claims in months people don't have enrollment which could mess with things (not sure how much this would impact eng dev and debugging, might be thinking more from a analyst dev point of view )</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="292">
   <si>
     <t>COLUMN_NAME</t>
   </si>
@@ -1045,12 +1105,113 @@
 Option Year
 Option#2: Birth Day</t>
   </si>
+  <si>
+    <t>limited / no generators on this field which is part of the PK</t>
+  </si>
+  <si>
+    <t>we mght also want to timestamp shift these to keep effective dates aligned with dates of service which are getting shifted
+eff_start_dt and end_dt are being used in patient_x_medicare_month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift this  one? </t>
+  </si>
+  <si>
+    <t>defined as COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS SRC_PK_BENE_ID</t>
+  </si>
+  <si>
+    <t>alphanumeric string key with consistency</t>
+  </si>
+  <si>
+    <t>Chris Freyder's comment</t>
+  </si>
+  <si>
+    <t>the field is defined in CMS documenetation as: Date beneficiary enrolled in Hospice.. So maybe not as important as other start dates?</t>
+  </si>
+  <si>
+    <t>are these the most important to timestamp shift?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift this  one? What are these based on…. Load period? </t>
+  </si>
+  <si>
+    <t>generator: timeshift generator +30 - +180 consitent to pk_bene_id</t>
+  </si>
+  <si>
+    <t>this is an integer representation of State</t>
+  </si>
+  <si>
+    <t>generator: Address
+Options: City
+Consistency
+Link to: SRC_GEO_ZIP_PLC_NAME, SRC_GEO_USPS_STATE_CD, SRC_GEO_ZIP5_CD</t>
+  </si>
+  <si>
+    <t>generator: Address
+Options: State Abbr
+Consistency
+Link to: SRC_GEO_ZIP_PLC_NAME, SRC_GEO_USPS_STATE_CD, SRC_GEO_ZIP5_CD</t>
+  </si>
+  <si>
+    <t>generator: Address
+Options: Zip Code
+Consistency
+Link to: SRC_GEO_ZIP_PLC_NAME, SRC_GEO_USPS_STATE_CD, SRC_GEO_ZIP5_CD</t>
+  </si>
+  <si>
+    <t>Numeric string key, Consistency</t>
+  </si>
+  <si>
+    <t>set this up as a post job update so that the deidentified DOB will drive the date</t>
+  </si>
+  <si>
+    <t>generator: categorical - differential privacy</t>
+  </si>
+  <si>
+    <t>no specific Tonic Address generator for this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no specific Tonic Address generator for this
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">generator: categorical - differential privacy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+values don't always seem to change much.  Review later</t>
+    </r>
+  </si>
+  <si>
+    <t>Address
+option: zip code
+consitency
+links to other Address generator fields</t>
+  </si>
+  <si>
+    <t>Address
+option: street address
+consitency
+links to other Address generator fields</t>
+  </si>
+  <si>
+    <t>just nulling out in case street address miskeyed into here</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,8 +1240,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,6 +1286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1118,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1134,6 +1321,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -3764,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4142,11 +4332,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4155,6 +4345,7 @@
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -4190,14 +4381,29 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
-      <c r="C4" t="s">
+    <row r="4" spans="3:6" ht="132" customHeight="1">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="60">
+      <c r="C5" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="3:6">
@@ -4210,9 +4416,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
-      <c r="C8" t="s">
+    <row r="8" spans="3:6" ht="60">
+      <c r="C8" s="7" t="s">
         <v>225</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -4255,42 +4467,63 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:7">
       <c r="C17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="3:7">
       <c r="C18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:7">
       <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
-      <c r="C20" t="s">
+    <row r="20" spans="3:7" ht="30">
+      <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" t="s">
+      <c r="E20" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="90">
+      <c r="C21" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" t="s">
+      <c r="D21" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="30">
+      <c r="C22" s="7" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" t="s">
+      <c r="D22" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="75">
+      <c r="C23" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="24" spans="3:6" ht="60">
+      <c r="E23" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="60">
       <c r="C24" s="7" t="s">
         <v>229</v>
       </c>
@@ -4298,37 +4531,49 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
-      <c r="C25" t="s">
+    <row r="25" spans="3:7" ht="30">
+      <c r="C25" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" t="s">
+      <c r="E25" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="30">
+      <c r="C26" s="7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" t="s">
+      <c r="E26" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="60">
+      <c r="C27" s="7" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="28" spans="3:6">
+      <c r="E27" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
       <c r="C28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="3:7">
       <c r="C29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
-      <c r="C30" t="s">
+    <row r="30" spans="3:7" ht="60">
+      <c r="C30" s="7" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="31" spans="3:6" ht="75">
+      <c r="E30" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="105">
       <c r="C31" s="7" t="s">
         <v>236</v>
       </c>
@@ -4338,13 +4583,22 @@
       <c r="F31" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="32" spans="3:6">
+      <c r="G31" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="60">
       <c r="C32" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" ht="45">
+      <c r="D32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="45">
       <c r="C33" s="7" t="s">
         <v>238</v>
       </c>
@@ -4352,7 +4606,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="60">
+    <row r="34" spans="3:6" ht="60">
       <c r="C34" s="7" t="s">
         <v>239</v>
       </c>
@@ -4360,7 +4614,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="45">
+    <row r="35" spans="3:6" ht="45">
       <c r="C35" s="7" t="s">
         <v>240</v>
       </c>
@@ -4368,87 +4622,135 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:6">
       <c r="C36" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:6">
       <c r="C37" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
-      <c r="C38" t="s">
+    <row r="38" spans="3:6" ht="30">
+      <c r="C38" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" t="s">
+      <c r="E38" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="60">
+      <c r="C39" s="7" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" t="s">
+      <c r="D39" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="60">
+      <c r="C40" s="7" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" t="s">
+      <c r="D40" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="75">
+      <c r="C41" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" t="s">
+      <c r="E41" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="75">
+      <c r="C42" s="7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" t="s">
+      <c r="E42" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="30">
+      <c r="C43" s="7" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="C44" t="s">
+      <c r="D43" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="30">
+      <c r="C44" s="7" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="C45" t="s">
+      <c r="D44" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="30">
+      <c r="C45" s="7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" t="s">
+      <c r="D45" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="30">
+      <c r="C46" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" t="s">
+      <c r="D46" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="135">
+      <c r="C47" s="7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" t="s">
+      <c r="E47" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="135">
+      <c r="C48" s="7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
+      <c r="E48" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="135">
+      <c r="C49" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
+      <c r="E49" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="30">
+      <c r="C50" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="51" spans="3:3">
+      <c r="E50" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
       <c r="C51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:5">
       <c r="C52" t="s">
         <v>43</v>
       </c>
@@ -4456,5 +4758,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/odsTablesTonic.xlsx
+++ b/odsTablesTonic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="8055" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="cclf1 hdr" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="cclf6 dme" sheetId="8" r:id="rId6"/>
     <sheet name="cclf7 med" sheetId="1" r:id="rId7"/>
     <sheet name="cclf8 bene demo" sheetId="7" r:id="rId8"/>
+    <sheet name="cclf_assgn_0_hdr" sheetId="9" r:id="rId9"/>
+    <sheet name="cclf_assgn_1_summ" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="382">
   <si>
     <t>COLUMN_NAME</t>
   </si>
@@ -1090,11 +1092,6 @@
 </t>
   </si>
   <si>
-    <t>ascii key
-hash in etl
-this  hash may want to agree with the one in scr_bene_mbi_id in which case apply hash precisely</t>
-  </si>
-  <si>
     <t>Want to apply a timeshift generator but Tonic limits generator types on fields where the DB has included it as part of the pK</t>
   </si>
   <si>
@@ -1139,24 +1136,6 @@
   </si>
   <si>
     <t>this is an integer representation of State</t>
-  </si>
-  <si>
-    <t>generator: Address
-Options: City
-Consistency
-Link to: SRC_GEO_ZIP_PLC_NAME, SRC_GEO_USPS_STATE_CD, SRC_GEO_ZIP5_CD</t>
-  </si>
-  <si>
-    <t>generator: Address
-Options: State Abbr
-Consistency
-Link to: SRC_GEO_ZIP_PLC_NAME, SRC_GEO_USPS_STATE_CD, SRC_GEO_ZIP5_CD</t>
-  </si>
-  <si>
-    <t>generator: Address
-Options: Zip Code
-Consistency
-Link to: SRC_GEO_ZIP_PLC_NAME, SRC_GEO_USPS_STATE_CD, SRC_GEO_ZIP5_CD</t>
   </si>
   <si>
     <t>Numeric string key, Consistency</t>
@@ -1192,26 +1171,334 @@
     </r>
   </si>
   <si>
-    <t>Address
+    <t>just nulling out in case street address miskeyed into here</t>
+  </si>
+  <si>
+    <t>PK_ASSGN_HDR_ID</t>
+  </si>
+  <si>
+    <t>SRC_PK_ASSGN_HDR_ID</t>
+  </si>
+  <si>
+    <t>SRC_ASSGN_PERIOD</t>
+  </si>
+  <si>
+    <t>SRC_ASSGN_PERIOD_TYPE_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_ASSGN_WINDOW_START_DT</t>
+  </si>
+  <si>
+    <t>SRC_BENE_ASSGN_WINDOW_END_DT</t>
+  </si>
+  <si>
+    <t>SRC_MSSP_ACO_REPORT_PERIOD_START_DT</t>
+  </si>
+  <si>
+    <t>SRC_MSSP_ACO_REPORT_PERIOD_END_DT</t>
+  </si>
+  <si>
+    <t>SRC_CLAIMS_PROCESSED_AS_OF_DT</t>
+  </si>
+  <si>
+    <t>SRC_HCC_START_DT</t>
+  </si>
+  <si>
+    <t>SRC_HCC_END_DT</t>
+  </si>
+  <si>
+    <t>SRC_HCCS_DIAG_START_DT</t>
+  </si>
+  <si>
+    <t>SRC_HCCS_DIAG_END_DT</t>
+  </si>
+  <si>
+    <t>SRC_RISK_SCORE_START_DT</t>
+  </si>
+  <si>
+    <t>SRC_RISK_SCORE_END_DT</t>
+  </si>
+  <si>
+    <t>SRC_RISK_SCORE_DIAG_START_DT</t>
+  </si>
+  <si>
+    <t>SRC_RISK_SCORE_DIAG_END_DT</t>
+  </si>
+  <si>
+    <t>SRC_ACO_TRACK</t>
+  </si>
+  <si>
+    <t>SRC_PRODUCED_DT</t>
+  </si>
+  <si>
+    <t>SRC_VOLUNTARY_ALIGNMENT_END_DT</t>
+  </si>
+  <si>
+    <t>SRC_PERFORMANCE_YEAR</t>
+  </si>
+  <si>
+    <t>SRC_DEMO_RISK_SCORE_START_DT</t>
+  </si>
+  <si>
+    <t>SRC_DEMO_RISK_SCORE_END_DT</t>
+  </si>
+  <si>
+    <t>PK_ASSGN_SUMM_ID</t>
+  </si>
+  <si>
+    <t>FK_ASSGN_HDR_ID</t>
+  </si>
+  <si>
+    <t>SRC_PK_ASSGN_SUMM_ID</t>
+  </si>
+  <si>
+    <t>SRC_BENE_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>SRC_BENE_COUNTY_NAME</t>
+  </si>
+  <si>
+    <t>SRC_BENE_STATE_NAME</t>
+  </si>
+  <si>
+    <t>SRC_BENE_COUNTY_NUMBER</t>
+  </si>
+  <si>
+    <t>SRC_BENE_DEATH_FLG</t>
+  </si>
+  <si>
+    <t>SRC_BENE_ASSGN_STEP_CD</t>
+  </si>
+  <si>
+    <t>SRC_BENE_PRV_ASSGN_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_01_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_02_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_03_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_04_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_05_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_06_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_07_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_08_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_09_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_10_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_11_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MNTH_12_ELGBL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_CMS_HCC_ESRD_RISK_SCORE</t>
+  </si>
+  <si>
+    <t>SRC_CMS_HCC_DSBLD_RISK_SCORE</t>
+  </si>
+  <si>
+    <t>SRC_CMS_HCC_AGED_DUAL_RISK_SCORE</t>
+  </si>
+  <si>
+    <t>SRC_CMS_HCC_AGED_NONDUAL_RISK_SCORE</t>
+  </si>
+  <si>
+    <t>SRC_BENE_VOLUN_ALGN_FLG</t>
+  </si>
+  <si>
+    <t>SRC_BENE_CLM_BASED_ASSGN_FLG</t>
+  </si>
+  <si>
+    <t>SRC_DEMO_ESRD_RISK_SCORE</t>
+  </si>
+  <si>
+    <t>SRC_DEMO_DSBLD_RISK_SCORE</t>
+  </si>
+  <si>
+    <t>SRC_DEMO_AGED_DUAL_RISK_SCORE</t>
+  </si>
+  <si>
+    <t>SRC_DEMO_AGED_NONDUAL_RISK_SCORE</t>
+  </si>
+  <si>
+    <t>SRC_BENE_EXCL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_BENE_DEATH_DATE_PRIOR_EXCL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_BENE_ID_MISSING_EXCL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_BENE_PRT_A_B_ONLY_EXCL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_BENE_ONE_MNTH_MHP_EXCL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_BENE_RESIDE_OUTSIDE_US_EXCL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_BENE_OTHER_SHARED_SAVINGS_EXCL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_MEDICARE_PT_D_ENROLL_FLG</t>
+  </si>
+  <si>
+    <t>SRC_VA_TIN</t>
+  </si>
+  <si>
+    <t>SRC_VA_NPI</t>
+  </si>
+  <si>
+    <t>SRC_ASSIGNED_BEFORE</t>
+  </si>
+  <si>
+    <t>SRC_ASG_STATUS</t>
+  </si>
+  <si>
+    <t>links to the PK in assgn_0_hdr</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR('{{org_id}}'),'') || '|' ||</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR('{{load_period}}'),'') || '|' ||</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(bene_mbi_id),'')</t>
+  </si>
+  <si>
+    <t>AS PK_ASSGN_SUMM_ID</t>
+  </si>
+  <si>
+    <t>ascii key</t>
+  </si>
+  <si>
+    <t>db pk</t>
+  </si>
+  <si>
+    <t>ascii key with consistency
+hash in etl
+this  hash may want to agree with the one in scr_bene_mbi_id in which case apply hash precisely</t>
+  </si>
+  <si>
+    <t>see definition below</t>
+  </si>
+  <si>
+    <t>below won't work unless Tonic fixes problem mentioned in cclf_8 PK comments
+multi-Regex (2nd regex for bad data)
+(.*)\|(\w+.*)
+capture group
+0 passthrough
+1 Alphanumeric String Key, consistency
+(.*)\|(\W+.*)
+capture group
+0 passthrough
+1 Null
+hash in etl</t>
+  </si>
+  <si>
+    <t>links to the fk like in assgn_1_summ</t>
+  </si>
+  <si>
+    <t>generator: name, options: Last, with consistency</t>
+  </si>
+  <si>
+    <t>generator: name, options: First, with consistency</t>
+  </si>
+  <si>
+    <t>links to the PK in cclf_8_bene_demo
+defined in sql etl as:
+COALESCE(TO_VARCHAR('{{org_src_id}}'),'') || '|' ||
+      COALESCE(TO_VARCHAR(bene_mbi_id),'')
+      AS FK_BENE_ID</t>
+  </si>
+  <si>
+    <t>alpha numeric string key with consistency</t>
+  </si>
+  <si>
+    <t>county number isn't in Tonic</t>
+  </si>
+  <si>
+    <t>integer key with consistency</t>
+  </si>
+  <si>
+    <t>HIPAA address, County Consistent, Links to State</t>
+  </si>
+  <si>
+    <t>HIPAA address, State, Consistent, Linked</t>
+  </si>
+  <si>
+    <t>generator: HIPAA Address
+Options: City
+Consistency
+Link to: SRC_GEO_ZIP_PLC_NAME, SRC_GEO_USPS_STATE_CD, SRC_GEO_ZIP5_CD</t>
+  </si>
+  <si>
+    <t>generator: HIPAA Address
+Options: State Abbr
+Consistency
+Link to: SRC_GEO_ZIP_PLC_NAME, SRC_GEO_USPS_STATE_CD, SRC_GEO_ZIP5_CD</t>
+  </si>
+  <si>
+    <t>generator: HIPAA Address
+Options: Zip Code
+Consistency
+Link to: SRC_GEO_ZIP_PLC_NAME, SRC_GEO_USPS_STATE_CD, SRC_GEO_ZIP5_CD</t>
+  </si>
+  <si>
+    <t>Tonic says ROW DROP 27k, I'm only seeing 5k
+can't wrap timeshift within Categorical (to guard against 2099-12-31) and make it consisent on pk_bene_id</t>
+  </si>
+  <si>
+    <t>generator: timeshift generator +30 - +180 consistent to pk_bene_id</t>
+  </si>
+  <si>
+    <t>AS PK_PT_B_DME_ID</t>
+  </si>
+  <si>
+    <t>COALESCE(TO_VARCHAR(clm_cntl_num),'') || '|' ||</t>
+  </si>
+  <si>
+    <t>AS ODS_PT_B_CLM_NK</t>
+  </si>
+  <si>
+    <t>HIPAA Address
 option: zip code
 consitency
 links to other Address generator fields</t>
   </si>
   <si>
-    <t>Address
+    <t>HIPAA Address
 option: street address
 consitency
 links to other Address generator fields</t>
-  </si>
-  <si>
-    <t>just nulling out in case street address miskeyed into here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,8 +1547,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1292,6 +1586,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1305,7 +1605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1324,6 +1624,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,6 +1648,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1140497</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1214438" y="34254282"/>
+          <a:ext cx="3605090" cy="1916906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>579183</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>74157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1188783" y="17878424"/>
+          <a:ext cx="3059367" cy="1626733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2064,6 +2452,493 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="210">
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="30">
+      <c r="C8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="30">
+      <c r="C24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="45">
+      <c r="C25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="45">
+      <c r="C26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="30">
+      <c r="C27" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="60">
+      <c r="C28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="45">
+      <c r="C29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="45">
+      <c r="C30" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="30">
+      <c r="C31" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="30">
+      <c r="C32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="30">
+      <c r="C54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="C62" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:F59"/>
@@ -3682,10 +4557,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F48"/>
+  <dimension ref="C1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3693,7 +4568,7 @@
     <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:6">
@@ -3711,242 +4586,300 @@
       </c>
     </row>
     <row r="2" spans="3:6">
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>255</v>
       </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" t="s">
+      <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" t="s">
+      <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" t="s">
+      <c r="C19" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" t="s">
+      <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" t="s">
+      <c r="C22" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" t="s">
+      <c r="C24" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" t="s">
+      <c r="C27" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" t="s">
+      <c r="C28" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" t="s">
+      <c r="C29" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" t="s">
+      <c r="C30" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" t="s">
+      <c r="C31" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" t="s">
+      <c r="C32" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" t="s">
+      <c r="C33" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" t="s">
+      <c r="C34" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" t="s">
+      <c r="C35" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" t="s">
+      <c r="C36" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" t="s">
+      <c r="C37" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" t="s">
+      <c r="C38" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" t="s">
+      <c r="C39" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" t="s">
+      <c r="C40" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" t="s">
+      <c r="C41" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" t="s">
+      <c r="C42" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" t="s">
+      <c r="C43" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" t="s">
+      <c r="C44" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" t="s">
+      <c r="C45" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" t="s">
+      <c r="C46" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" t="s">
+      <c r="C47" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" t="s">
+      <c r="C48" s="10" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4333,15 +5266,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G52"/>
+  <dimension ref="C1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
@@ -4378,7 +5311,7 @@
         <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="132" customHeight="1">
@@ -4386,13 +5319,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="60">
@@ -4400,10 +5333,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="3:6">
@@ -4421,10 +5354,10 @@
         <v>225</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -4487,32 +5420,32 @@
         <v>21</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="90">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="101.25" customHeight="1">
       <c r="C21" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" ht="30">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="51" customHeight="1">
       <c r="C22" s="7" t="s">
         <v>227</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="75">
@@ -4520,7 +5453,7 @@
         <v>228</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="60">
@@ -4528,23 +5461,23 @@
         <v>229</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" ht="30">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="40.5" customHeight="1">
       <c r="C25" s="7" t="s">
         <v>230</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" ht="30">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="45" customHeight="1">
       <c r="C26" s="7" t="s">
         <v>231</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="60">
@@ -4552,7 +5485,7 @@
         <v>232</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="3:7">
@@ -4570,7 +5503,7 @@
         <v>235</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="105">
@@ -4578,24 +5511,27 @@
         <v>236</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" ht="60">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="138" customHeight="1">
       <c r="C32" s="7" t="s">
         <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>278</v>
+        <v>376</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="45">
@@ -4637,7 +5573,7 @@
         <v>40</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="60">
@@ -4645,13 +5581,13 @@
         <v>243</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="60">
@@ -4659,10 +5595,10 @@
         <v>244</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="75">
@@ -4670,7 +5606,7 @@
         <v>245</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="3:6" ht="75">
@@ -4678,7 +5614,7 @@
         <v>246</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="30">
@@ -4686,7 +5622,7 @@
         <v>247</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="3:6" ht="30">
@@ -4694,7 +5630,7 @@
         <v>248</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="30">
@@ -4702,7 +5638,7 @@
         <v>249</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="30">
@@ -4710,31 +5646,31 @@
         <v>250</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="135">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="150">
       <c r="C47" s="7" t="s">
         <v>251</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="135">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="150">
       <c r="C48" s="7" t="s">
         <v>252</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="135">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="150">
       <c r="C49" s="7" t="s">
         <v>253</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="30">
@@ -4742,7 +5678,7 @@
         <v>254</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="3:5">
@@ -4755,9 +5691,264 @@
         <v>43</v>
       </c>
     </row>
+    <row r="60" spans="3:5">
+      <c r="C60" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="30">
+      <c r="C3" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/odsTablesTonic.xlsx
+++ b/odsTablesTonic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="6240" tabRatio="780" firstSheet="21" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="6240" tabRatio="780" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="cclf1 hdr" sheetId="3" r:id="rId1"/>
@@ -1950,23 +1950,6 @@
     <t>alpha numeric stiing key with consisitency</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tonic says ROW DROP 27k, I'm only seeing 5k.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Can't wrap timeshift within Categorical (to guard against 2099-12-31) and make it consisent on pk_bene_id</t>
-    </r>
-  </si>
-  <si>
     <t>COALESCE(TO_VARCHAR(master_id),'')</t>
   </si>
   <si>
@@ -2816,6 +2799,23 @@
   </si>
   <si>
     <t>SRC_QEM_ALLOWED_OTHER_AY2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tonic says ROW DROP 27k, I'm only seeing 5k.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can't wrap timeshift within Categorical (to guard against 9999-12-31) and make it consisent on pk_bene_id</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3399,7 +3399,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -3448,10 +3448,10 @@
         <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G7" s="17"/>
     </row>
@@ -3555,7 +3555,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="3:7">
@@ -3677,7 +3677,7 @@
         <v>93</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -3862,7 +3862,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -4021,10 +4021,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="3:5">
@@ -4299,7 +4299,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -4481,10 +4481,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="26" spans="3:5">
@@ -4671,10 +4671,10 @@
         <v>475</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="4" spans="3:6">
@@ -4702,7 +4702,7 @@
         <v>282</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -4910,7 +4910,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -4977,7 +4977,7 @@
         <v>353</v>
       </c>
       <c r="G8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -5067,7 +5067,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="45">
@@ -5412,7 +5412,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -5479,7 +5479,7 @@
         <v>481</v>
       </c>
       <c r="G8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="3:7" ht="135.75">
@@ -5587,7 +5587,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="3:5">
@@ -5694,7 +5694,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -5758,7 +5758,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -5978,7 +5978,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -6045,7 +6045,7 @@
         <v>481</v>
       </c>
       <c r="G8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -6135,7 +6135,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="45">
@@ -6238,12 +6238,12 @@
     </row>
     <row r="42" spans="3:5">
       <c r="C42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="3:5">
       <c r="C43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -6281,7 +6281,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -6291,7 +6291,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D3" t="s">
         <v>356</v>
@@ -6345,7 +6345,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -6355,7 +6355,7 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -6435,7 +6435,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="45">
@@ -6490,12 +6490,12 @@
     </row>
     <row r="32" spans="3:5">
       <c r="C32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="30">
@@ -6508,7 +6508,7 @@
     </row>
     <row r="35" spans="3:5">
       <c r="C35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -6548,17 +6548,17 @@
     </row>
     <row r="44" spans="3:5">
       <c r="C44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="3:5">
       <c r="C45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="C46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -6597,7 +6597,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -6607,7 +6607,7 @@
     </row>
     <row r="3" spans="3:7" ht="30">
       <c r="C3" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D3" t="s">
         <v>356</v>
@@ -6661,7 +6661,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -6671,7 +6671,7 @@
     </row>
     <row r="10" spans="3:7" ht="30">
       <c r="C10" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -6751,7 +6751,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="45">
@@ -6801,32 +6801,32 @@
     </row>
     <row r="31" spans="3:5">
       <c r="C31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="C32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="30">
@@ -6874,7 +6874,7 @@
     </row>
     <row r="46" spans="3:5">
       <c r="C46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -6912,7 +6912,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -6922,7 +6922,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D3" t="s">
         <v>356</v>
@@ -6976,7 +6976,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -6986,7 +6986,7 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E10" t="s">
         <v>63</v>
@@ -7066,7 +7066,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="45">
@@ -7124,7 +7124,7 @@
     </row>
     <row r="32" spans="3:5">
       <c r="C32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -7164,7 +7164,7 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7203,7 +7203,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -7252,7 +7252,7 @@
         <v>215</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>355</v>
@@ -7270,7 +7270,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G8" s="17"/>
     </row>
@@ -7382,7 +7382,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -7429,7 +7429,7 @@
         <v>93</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="3:6">
@@ -7604,7 +7604,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -7621,7 +7621,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -7629,10 +7629,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E3" t="s">
         <v>216</v>
@@ -7640,7 +7640,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E4" t="s">
         <v>216</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="C5" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E5" t="s">
         <v>216</v>
@@ -7691,33 +7691,33 @@
     </row>
     <row r="13" spans="1:6" ht="60">
       <c r="C13" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60">
       <c r="C14" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -7758,7 +7758,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -7783,10 +7783,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="E3" t="s">
         <v>216</v>
@@ -7837,33 +7837,33 @@
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="C12" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60">
       <c r="C13" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -7885,7 +7885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -7900,7 +7900,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7925,10 +7925,10 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="C3" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G3" s="17"/>
     </row>
@@ -7954,13 +7954,13 @@
     </row>
     <row r="8" spans="1:7" ht="75">
       <c r="C8" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G8" s="17"/>
     </row>
@@ -8032,12 +8032,12 @@
         <v>21</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="45">
       <c r="C22" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>257</v>
@@ -8045,15 +8045,15 @@
     </row>
     <row r="23" spans="3:5" ht="75">
       <c r="C23" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="45">
       <c r="C24" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>259</v>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="25" spans="3:5" ht="75">
       <c r="C25" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>262</v>
@@ -8069,15 +8069,15 @@
     </row>
     <row r="26" spans="3:5" ht="75">
       <c r="C26" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="60">
       <c r="C27" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>276</v>
@@ -8110,7 +8110,7 @@
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -8138,7 +8138,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -8163,10 +8163,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8176,7 +8176,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -8200,10 +8200,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8213,7 +8213,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8273,12 +8273,12 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="3:3">
@@ -8293,62 +8293,62 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="3:3">
@@ -8358,42 +8358,42 @@
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="3:3">
@@ -8432,7 +8432,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -8448,10 +8448,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8461,7 +8461,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8553,32 +8553,32 @@
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="3:3">
@@ -8588,7 +8588,7 @@
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="3:3">
@@ -8598,7 +8598,7 @@
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="31" spans="3:3">
@@ -8632,7 +8632,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -8648,10 +8648,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8661,7 +8661,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -8685,7 +8685,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8753,87 +8753,87 @@
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="38" spans="3:3">
@@ -8867,7 +8867,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -8883,10 +8883,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8896,7 +8896,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -8920,7 +8920,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8993,42 +8993,42 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="3:3">
@@ -9038,7 +9038,7 @@
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="32" spans="3:3">
@@ -9048,12 +9048,12 @@
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="3:3">
@@ -9091,7 +9091,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -9116,15 +9116,15 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="C5" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9142,7 +9142,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -9150,7 +9150,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -9176,7 +9176,7 @@
         <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45">
@@ -9184,7 +9184,7 @@
         <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -9192,7 +9192,7 @@
         <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9202,12 +9202,12 @@
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -9245,7 +9245,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -9262,7 +9262,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -9270,18 +9270,18 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9296,15 +9296,15 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="C13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -9342,7 +9342,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9378,7 +9378,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -9400,15 +9400,15 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9426,7 +9426,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -9434,7 +9434,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -9463,7 +9463,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9473,12 +9473,12 @@
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9526,7 +9526,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -9575,7 +9575,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>186</v>
@@ -9613,7 +9613,7 @@
         <v>63</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -9691,7 +9691,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -9722,7 +9722,7 @@
         <v>93</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="3:6">
@@ -9858,7 +9858,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -9880,18 +9880,18 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9906,7 +9906,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9947,7 +9947,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9957,7 +9957,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -9993,7 +9993,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -10007,7 +10007,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -10015,15 +10015,15 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -10031,7 +10031,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10041,7 +10041,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -10070,7 +10070,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10105,12 +10105,12 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -10144,7 +10144,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -10160,23 +10160,23 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10186,15 +10186,15 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="C13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10232,7 +10232,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="C15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10271,7 +10271,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -10279,12 +10279,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -10307,7 +10307,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10367,17 +10367,17 @@
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="3:3">
@@ -10387,12 +10387,12 @@
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -10407,17 +10407,17 @@
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31" spans="3:3">
@@ -10461,7 +10461,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -10469,12 +10469,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -10492,7 +10492,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10502,7 +10502,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10562,42 +10562,42 @@
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="3:3">
@@ -10645,7 +10645,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -10694,7 +10694,7 @@
         <v>215</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>200</v>
@@ -10712,7 +10712,7 @@
         <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G8" s="17"/>
     </row>
@@ -10810,7 +10810,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -10847,7 +10847,7 @@
         <v>93</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="3:6">
@@ -11008,7 +11008,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -11057,7 +11057,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -11163,7 +11163,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -11314,7 +11314,7 @@
         <v>93</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="3:5">
@@ -11536,7 +11536,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -11688,7 +11688,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="3:6">
@@ -11810,7 +11810,7 @@
         <v>93</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="3:7">
@@ -11940,7 +11940,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -11992,7 +11992,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
@@ -12096,7 +12096,7 @@
         <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="3:6">
@@ -12302,8 +12302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12329,7 +12329,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -12345,10 +12345,10 @@
         <v>256</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="17"/>
     </row>
@@ -12374,7 +12374,7 @@
         <v>271</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -12395,7 +12395,7 @@
         <v>266</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G8" s="17"/>
     </row>
@@ -12459,7 +12459,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="101.25" customHeight="1">
@@ -12570,7 +12570,7 @@
         <v>369</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>495</v>
+        <v>705</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="45">
@@ -12774,7 +12774,7 @@
         <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="3:7">
@@ -12938,10 +12938,10 @@
         <v>391</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="3:6" ht="60">
@@ -12949,10 +12949,10 @@
         <v>392</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="3:6">
